--- a/InputData/elec/MCGLT/Max Cap Growth Lookup Table.xlsx
+++ b/InputData/elec/MCGLT/Max Cap Growth Lookup Table.xlsx
@@ -112,7 +112,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -138,6 +138,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +565,8 @@
           <t>North Carolina</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Coastal?</t>
-        </is>
+      <c r="C1" s="23" t="n">
+        <v>44307</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
